--- a/Inputs/ConfigFile/Config.xlsx
+++ b/Inputs/ConfigFile/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Co\Documents\UiPath\SatınAlmaRaporlamaSüreci\Inputs\ConfigFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akinc\Downloads\Yeni klasör\Purchasing-and-Marketing-Process-main\Purchasing-and-Marketing-Process-main\Inputs\ConfigFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D569346-0169-4C84-AFC3-217471B1409A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FF46BA-7AB6-4442-9B94-53DA6FE6D410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -48,15 +48,6 @@
     <t>FilePathPersonalTable</t>
   </si>
   <si>
-    <t>C:\Users\Co\Documents\UiPath\SatınAlmaRaporlamaSüreci\Inputs\ExcelFiles\SatinAlmaSiparisleri.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\Co\Documents\UiPath\SatınAlmaRaporlamaSüreci\Inputs\ExcelFiles\SatinAlmaTalepleri.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\Co\Documents\UiPath\SatınAlmaRaporlamaSüreci\Inputs\ExcelFiles\PersonelTablosuUdemy.xlsx</t>
-  </si>
-  <si>
     <t>Excel Sheet Names</t>
   </si>
   <si>
@@ -363,9 +354,6 @@
     <t>FolderPathOutputReport</t>
   </si>
   <si>
-    <t>C:\Users\Co\Documents\UiPath\SatınAlmaRaporlamaSüreci\Outputs\Reports</t>
-  </si>
-  <si>
     <t>Report Excel Arguments</t>
   </si>
   <si>
@@ -421,6 +409,18 @@
   </si>
   <si>
     <t>&lt;br&gt;Sayın yetkili,&lt;br&gt;&lt;br&gt; {0} tarihinde çalışan raporlama süreci tamamlandı.&lt;br&gt;&lt;br&gt; Kontrol etmenizi rica ederiz.&lt;br&gt;&lt;br&gt; Bilginize sunarız.</t>
+  </si>
+  <si>
+    <t>Outputs\Reports</t>
+  </si>
+  <si>
+    <t>Inputs\ExcelFiles\PersonelTablosuUdemy.xlsx</t>
+  </si>
+  <si>
+    <t>Inputs\ExcelFiles\SatinAlmaTalepleri.xlsx</t>
+  </si>
+  <si>
+    <t>Inputs\ExcelFiles\SatinAlmaSiparisleri.xlsx</t>
   </si>
 </sst>
 </file>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +789,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -797,7 +797,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -805,269 +805,269 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
         <v>19</v>
-      </c>
-      <c r="B26" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B54">
         <v>9</v>
@@ -1075,139 +1075,139 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B85" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B86">
         <v>45</v>
@@ -1215,118 +1215,118 @@
     </row>
     <row r="88" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" t="s">
         <v>105</v>
-      </c>
-      <c r="B91" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B97" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B102" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B103" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B104" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B105" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B106" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B111" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B112" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
